--- a/需求优先级打分/SRA2023-G17-教师用户优先级排序 .xlsx
+++ b/需求优先级打分/SRA2023-G17-教师用户优先级排序 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40980\Desktop\SoftwareRequirementAnalyse-master\项目核心文档\需求优先级与打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F45C12-EC90-483E-9AB1-E67CBEBDF06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43D06A-2751-491C-A772-79DBF8A4B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1120" windowWidth="18430" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>特性</t>
   </si>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,19 +627,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -647,7 +655,7 @@
         <v>1.5623194006911645</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,7 +663,7 @@
         <v>1.4307340124485446</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +671,7 @@
         <v>1.2828149879886239</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,7 +679,7 @@
         <v>1.2828149879886239</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -679,7 +687,7 @@
         <v>1.2828149879886239</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,425 +695,441 @@
         <v>1.2828149879886239</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>1.282715539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.235303321766823</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>1.187699573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>1.1402799893232212</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>0.99774499065781852</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>0.98414934463127246</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>0.94549820905242588</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>0.86113067655236331</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>0.86113067655236331</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.70584481684619937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.70584481684619937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>0.70584481684619937</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.70584481684619937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.70584481684619937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>0.70584481684619937</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>0.70584481684619937</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B20">
-        <v>0.6862524395064441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
-        <v>0.6862524395064441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="B22">
         <v>0.6862524395064441</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>0.6862524395064441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>0.6862524395064441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>0.64370233297103563</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>0.63999824965722452</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0.6164881098738979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>0.6164881098738979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B27">
         <v>0.6164881098738979</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0.6164881098738979</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0.6164881098738979</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0.6164881098738979</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0.6164881098738979</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0.6164881098738979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0.6164881098738979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>0.60197340716153735</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="2">
         <v>0.60197340716153735</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>0.59056229136847027</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>0.58224855037347722</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>0.57764183669663172</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>0.56397702783799153</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>0.5490019516051553</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>0.5490019516051553</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B40">
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B42">
         <v>0.5180572351881495</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>0.5180572351881495</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>0.51374009156158162</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B45">
-        <v>0.50790640369502627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46">
-        <v>0.50790640369502627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B47">
         <v>0.50790640369502627</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>0.50790640369502627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>0.50790640369502627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>0.50769609048438658</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>0.49410175644463977</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B50">
-        <v>0.48861676902713641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51">
-        <v>0.48861676902713641</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B52">
         <v>0.48861676902713641</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0.48861676902713641</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>0.48861676902713641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>0.48861676902713641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>0.47776117948884489</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>0.46625151166933454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>0.46625151166933454</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>0.43516807755804565</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>0.4291348886473571</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>0.41532425367306597</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
-    <sortCondition descending="1" ref="B2:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition descending="1" ref="B2:B61"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求优先级打分/SRA2023-G17-教师用户优先级排序 .xlsx
+++ b/需求优先级打分/SRA2023-G17-教师用户优先级排序 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43D06A-2751-491C-A772-79DBF8A4B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC59C6F8-63B1-439C-8121-BFD91D82EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>特性</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    私信用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    查看用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,34 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    平时成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    大作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期中成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成绩构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末总评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +247,10 @@
   </si>
   <si>
     <t>帖子标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    新建群聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,14 +275,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -338,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -346,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,7 +660,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>1.282715539</v>
@@ -713,7 +676,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1.187699573</v>
@@ -769,7 +732,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>0.70584481684619937</v>
@@ -777,7 +740,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>0.70584481684619937</v>
@@ -785,7 +748,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>0.70584481684619937</v>
@@ -793,7 +756,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0.70584481684619937</v>
@@ -801,7 +764,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0.70584481684619937</v>
@@ -809,7 +772,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>0.6862524395064441</v>
@@ -817,7 +780,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0.6862524395064441</v>
@@ -825,7 +788,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>0.6862524395064441</v>
@@ -833,7 +796,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0.64370233297103563</v>
@@ -849,90 +812,90 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.6164881098738979</v>
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.63745384599999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0.6164881098738979</v>
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.60197340716153735</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.6164881098738979</v>
+        <v>0.59056229136847027</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
+      <c r="A30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6164881098738979</v>
+        <v>0.58224855037347722</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
+      <c r="A31" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.6164881098738979</v>
+        <v>0.57764183669663172</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>0.6164881098738979</v>
+        <v>0.56397702783799153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
+      <c r="A33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>0.6164881098738979</v>
+        <v>0.5490019516051553</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>0.60197340716153735</v>
+        <v>0.5490019516051553</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.60197340716153735</v>
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>0.5180572351881495</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.59056229136847027</v>
+        <v>0.5180572351881495</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>0.58224855037347722</v>
+        <v>0.5180572351881495</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,196 +903,140 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>0.57764183669663172</v>
+        <v>0.5180572351881495</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>0.56397702783799153</v>
+        <v>0.51374009156158162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.5490019516051553</v>
+        <v>0.50790640369502627</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.5490019516051553</v>
+        <v>0.50790640369502627</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>0.5180572351881495</v>
+        <v>0.50790640369502627</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B43">
-        <v>0.5180572351881495</v>
+        <v>0.50769609048438658</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>0.5180572351881495</v>
+        <v>0.49410175644463977</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>0.5180572351881495</v>
+        <v>0.48861676902713641</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>0.51374009156158162</v>
+        <v>0.48861676902713641</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>0.50790640369502627</v>
+        <v>0.48861676902713641</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>0.50790640369502627</v>
+        <v>0.48861676902713641</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>0.50790640369502627</v>
+        <v>0.47776117948884489</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>0.50769609048438658</v>
+        <v>0.46625151166933454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>0.49410175644463977</v>
+        <v>0.46625151166933454</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B52">
-        <v>0.48861676902713641</v>
+        <v>0.43516807755804565</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>0.48861676902713641</v>
+        <v>0.4291348886473571</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>0.48861676902713641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55">
-        <v>0.48861676902713641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56">
-        <v>0.47776117948884489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57">
-        <v>0.46625151166933454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58">
-        <v>0.46625151166933454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59">
-        <v>0.43516807755804565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60">
-        <v>0.4291348886473571</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61">
         <v>0.41532425367306597</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
-    <sortCondition descending="1" ref="B2:B61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
+    <sortCondition descending="1" ref="B2:B54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
